--- a/EquipmentReturn.Automation.FunctionalTest/TestData/EquipmentReturn.xlsx
+++ b/EquipmentReturn.Automation.FunctionalTest/TestData/EquipmentReturn.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ReturnInPerson" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
     <sheet name="FedEXShipping" sheetId="3" r:id="rId3"/>
     <sheet name="VerifyRequiredFields" sheetId="2" r:id="rId4"/>
+    <sheet name="AutomationExist" sheetId="5" r:id="rId5"/>
+    <sheet name="AutomationExist (2)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="51">
   <si>
     <t>EmpId</t>
   </si>
@@ -169,6 +171,12 @@
   </si>
   <si>
     <t>7504267</t>
+  </si>
+  <si>
+    <t>isvalidRITM</t>
+  </si>
+  <si>
+    <t>3342570</t>
   </si>
 </sst>
 </file>
@@ -213,11 +221,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -501,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -609,6 +623,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="18.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
@@ -1718,4 +1735,88 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>